--- a/data_year/zb/旅游业/国际旅游(外汇)收入及构成.xlsx
+++ b/data_year/zb/旅游业/国际旅游(外汇)收入及构成.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>国际旅游外汇收入</t>
+          <t>国际旅游收入</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -508,980 +508,490 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.05</v>
+        <v>51.95</v>
       </c>
       <c r="C2" t="n">
-        <v>14.04</v>
+        <v>40.15</v>
       </c>
       <c r="D2" t="n">
-        <v>32.31</v>
+        <v>115.9</v>
       </c>
       <c r="E2" t="n">
-        <v>162.24</v>
+        <v>458.14</v>
       </c>
       <c r="F2" t="n">
-        <v>11.93</v>
+        <v>31.72</v>
       </c>
       <c r="G2" t="n">
-        <v>5.34</v>
+        <v>14.6</v>
       </c>
       <c r="H2" t="n">
-        <v>35.02</v>
+        <v>98.08</v>
       </c>
       <c r="I2" t="n">
-        <v>5.96</v>
+        <v>10.81</v>
       </c>
       <c r="J2" t="n">
-        <v>7.51</v>
+        <v>21.07</v>
       </c>
       <c r="K2" t="n">
-        <v>1.86</v>
+        <v>9.56</v>
       </c>
       <c r="L2" t="n">
-        <v>5.03</v>
+        <v>10.68</v>
       </c>
       <c r="M2" t="n">
-        <v>5.96</v>
+        <v>12.47</v>
       </c>
       <c r="N2" t="n">
-        <v>48.8</v>
+        <v>130.91</v>
       </c>
       <c r="O2" t="n">
-        <v>15.23</v>
+        <v>41.15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.42</v>
+        <v>50.98</v>
       </c>
       <c r="C3" t="n">
-        <v>17.92</v>
+        <v>41.41</v>
       </c>
       <c r="D3" t="n">
-        <v>37.54</v>
+        <v>118.56</v>
       </c>
       <c r="E3" t="n">
-        <v>177.92</v>
+        <v>484.64</v>
       </c>
       <c r="F3" t="n">
-        <v>13.77</v>
+        <v>34.66</v>
       </c>
       <c r="G3" t="n">
-        <v>6.02</v>
+        <v>16.19</v>
       </c>
       <c r="H3" t="n">
-        <v>35.88</v>
+        <v>114.697865936733</v>
       </c>
       <c r="I3" t="n">
-        <v>4.45</v>
+        <v>14.0625736014385</v>
       </c>
       <c r="J3" t="n">
-        <v>8.02</v>
+        <v>25.32</v>
       </c>
       <c r="K3" t="n">
-        <v>4.51</v>
+        <v>8.34965307585413</v>
       </c>
       <c r="L3" t="n">
-        <v>6.79</v>
+        <v>10.36</v>
       </c>
       <c r="M3" t="n">
-        <v>5.21</v>
+        <v>14.0625736014385</v>
       </c>
       <c r="N3" t="n">
-        <v>50.05</v>
+        <v>151.172666215464</v>
       </c>
       <c r="O3" t="n">
-        <v>15.39</v>
+        <v>35.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.65</v>
+        <v>52.1092471269395</v>
       </c>
       <c r="C4" t="n">
-        <v>21.31</v>
+        <v>40.6775721162803</v>
       </c>
       <c r="D4" t="n">
-        <v>42.11</v>
+        <v>111.543678200395</v>
       </c>
       <c r="E4" t="n">
-        <v>203.85</v>
+        <v>500.28</v>
       </c>
       <c r="F4" t="n">
-        <v>15.25</v>
+        <v>36.127653747374</v>
       </c>
       <c r="G4" t="n">
-        <v>8.82</v>
+        <v>16.1016771314872</v>
       </c>
       <c r="H4" t="n">
-        <v>36.61</v>
+        <v>131.644413794373</v>
       </c>
       <c r="I4" t="n">
-        <v>8.74</v>
+        <v>15.5413544062802</v>
       </c>
       <c r="J4" t="n">
-        <v>14.31</v>
+        <v>25.5532969663379</v>
       </c>
       <c r="K4" t="n">
-        <v>2.6</v>
+        <v>9.14197318016482</v>
       </c>
       <c r="L4" t="n">
-        <v>7.2</v>
+        <v>7.91075788444186</v>
       </c>
       <c r="M4" t="n">
-        <v>4.65</v>
+        <v>16.4555517242967</v>
       </c>
       <c r="N4" t="n">
-        <v>52.6</v>
+        <v>172.783293105115</v>
       </c>
       <c r="O4" t="n">
-        <v>16.6</v>
+        <v>37.4736729677695</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.64</v>
+        <v>59.7583042589518</v>
       </c>
       <c r="C5" t="n">
-        <v>18.27</v>
+        <v>40.0114128279651</v>
       </c>
       <c r="D5" t="n">
-        <v>36.2</v>
+        <v>111.818591439354</v>
       </c>
       <c r="E5" t="n">
-        <v>174.06</v>
+        <v>516.64</v>
       </c>
       <c r="F5" t="n">
-        <v>13.02</v>
+        <v>35.913151523585</v>
       </c>
       <c r="G5" t="n">
-        <v>7.86</v>
+        <v>14.4353907352428</v>
       </c>
       <c r="H5" t="n">
-        <v>30.9</v>
+        <v>134.103281211034</v>
       </c>
       <c r="I5" t="n">
-        <v>7.37</v>
+        <v>13.6455970355087</v>
       </c>
       <c r="J5" t="n">
-        <v>12.2</v>
+        <v>30.921625651036</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>10.8223700626448</v>
       </c>
       <c r="L5" t="n">
-        <v>6.18</v>
+        <v>7.92435887501754</v>
       </c>
       <c r="M5" t="n">
-        <v>3.92</v>
+        <v>15.9982861795619</v>
       </c>
       <c r="N5" t="n">
-        <v>44.38</v>
+        <v>174.569534488749</v>
       </c>
       <c r="O5" t="n">
-        <v>14.31</v>
+        <v>41.2830201027606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.24</v>
+        <v>69.5</v>
       </c>
       <c r="C6" t="n">
-        <v>30.86</v>
+        <v>45.77</v>
       </c>
       <c r="D6" t="n">
-        <v>57.98</v>
+        <v>113.28</v>
       </c>
       <c r="E6" t="n">
-        <v>257.39</v>
+        <v>1053.8</v>
       </c>
       <c r="F6" t="n">
-        <v>18.25</v>
+        <v>36.74</v>
       </c>
       <c r="G6" t="n">
-        <v>10.87</v>
+        <v>16.04</v>
       </c>
       <c r="H6" t="n">
-        <v>49.52</v>
+        <v>145.79</v>
       </c>
       <c r="I6" t="n">
-        <v>8.1</v>
+        <v>15.68</v>
       </c>
       <c r="J6" t="n">
-        <v>13.07</v>
+        <v>32.54</v>
       </c>
       <c r="K6" t="n">
-        <v>4.63</v>
+        <v>13.59</v>
       </c>
       <c r="L6" t="n">
-        <v>8.81</v>
+        <v>11.04</v>
       </c>
       <c r="M6" t="n">
-        <v>4.63</v>
+        <v>20.9</v>
       </c>
       <c r="N6" t="n">
-        <v>66.88</v>
+        <v>195.95</v>
       </c>
       <c r="O6" t="n">
-        <v>19.42</v>
+        <v>48.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.75</v>
+        <v>132.9</v>
       </c>
       <c r="C7" t="n">
-        <v>32.99</v>
+        <v>118.6</v>
       </c>
       <c r="D7" t="n">
-        <v>63.78</v>
+        <v>209</v>
       </c>
       <c r="E7" t="n">
-        <v>292.96</v>
+        <v>1136.5</v>
       </c>
       <c r="F7" t="n">
-        <v>17.02</v>
+        <v>53.9</v>
       </c>
       <c r="G7" t="n">
-        <v>10.3</v>
+        <v>22.4</v>
       </c>
       <c r="H7" t="n">
-        <v>59.28</v>
+        <v>294.8</v>
       </c>
       <c r="I7" t="n">
-        <v>7.18</v>
+        <v>32.5</v>
       </c>
       <c r="J7" t="n">
-        <v>12.27</v>
+        <v>44.8</v>
       </c>
       <c r="K7" t="n">
-        <v>7.44</v>
+        <v>78</v>
       </c>
       <c r="L7" t="n">
-        <v>8.44</v>
+        <v>23.9</v>
       </c>
       <c r="M7" t="n">
-        <v>9.039999999999999</v>
+        <v>43.2</v>
       </c>
       <c r="N7" t="n">
-        <v>82.94</v>
+        <v>448.5</v>
       </c>
       <c r="O7" t="n">
-        <v>27.48</v>
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.97</v>
+        <v>116.3</v>
       </c>
       <c r="C8" t="n">
-        <v>30.06</v>
+        <v>118</v>
       </c>
       <c r="D8" t="n">
-        <v>112.07</v>
+        <v>209.5</v>
       </c>
       <c r="E8" t="n">
-        <v>339.49</v>
+        <v>1200</v>
       </c>
       <c r="F8" t="n">
-        <v>12.53</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>12.01</v>
+        <v>40.4</v>
       </c>
       <c r="H8" t="n">
-        <v>66.63</v>
+        <v>290.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>31.6</v>
       </c>
       <c r="J8" t="n">
-        <v>9.859999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>1.24</v>
+        <v>71</v>
       </c>
       <c r="L8" t="n">
-        <v>5.11</v>
+        <v>28.9</v>
       </c>
       <c r="M8" t="n">
-        <v>2.79</v>
+        <v>53.2</v>
       </c>
       <c r="N8" t="n">
-        <v>73.76000000000001</v>
+        <v>446.5</v>
       </c>
       <c r="O8" t="n">
-        <v>35.12</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59.38</v>
+        <v>122.08</v>
       </c>
       <c r="C9" t="n">
-        <v>46.83</v>
+        <v>123.64</v>
       </c>
       <c r="D9" t="n">
-        <v>104.94</v>
+        <v>229.95</v>
       </c>
       <c r="E9" t="n">
-        <v>419.19</v>
+        <v>1234.17</v>
       </c>
       <c r="F9" t="n">
-        <v>21.1</v>
+        <v>74.16</v>
       </c>
       <c r="G9" t="n">
-        <v>12.42</v>
+        <v>39.2</v>
       </c>
       <c r="H9" t="n">
-        <v>87.91</v>
+        <v>304.87</v>
       </c>
       <c r="I9" t="n">
-        <v>6.94</v>
+        <v>29.43</v>
       </c>
       <c r="J9" t="n">
-        <v>18</v>
+        <v>65.04000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>8.869999999999999</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>7.61</v>
+        <v>27.57</v>
       </c>
       <c r="M9" t="n">
-        <v>7.71</v>
+        <v>49.52</v>
       </c>
       <c r="N9" t="n">
-        <v>111.43</v>
+        <v>449.46</v>
       </c>
       <c r="O9" t="n">
-        <v>37.48</v>
+        <v>103.07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48.6</v>
+        <v>181.0880458151</v>
       </c>
       <c r="C10" t="n">
-        <v>35.6</v>
+        <v>114.5425930953</v>
       </c>
       <c r="D10" t="n">
-        <v>85.34</v>
+        <v>327.6134732146</v>
       </c>
       <c r="E10" t="n">
-        <v>408.43</v>
+        <v>1271.0301456102</v>
       </c>
       <c r="F10" t="n">
-        <v>29.7</v>
+        <v>45.8212972434</v>
       </c>
       <c r="G10" t="n">
-        <v>13.55</v>
+        <v>27.7647385219</v>
       </c>
       <c r="H10" t="n">
-        <v>90.47</v>
+        <v>333.5344734445</v>
       </c>
       <c r="I10" t="n">
-        <v>10.47</v>
+        <v>13.7186610443</v>
       </c>
       <c r="J10" t="n">
-        <v>22.02</v>
+        <v>53.7144872952</v>
       </c>
       <c r="K10" t="n">
-        <v>10.47</v>
+        <v>5.5360954603</v>
       </c>
       <c r="L10" t="n">
-        <v>10.02</v>
+        <v>11.6235097398</v>
       </c>
       <c r="M10" t="n">
-        <v>13.46</v>
+        <v>13.5219330633</v>
       </c>
       <c r="N10" t="n">
-        <v>124.87</v>
+        <v>366.3117382613</v>
       </c>
       <c r="O10" t="n">
-        <v>38.73</v>
+        <v>142.5508376723</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.34</v>
+        <v>200.49</v>
       </c>
       <c r="C11" t="n">
-        <v>34.91</v>
+        <v>101.89</v>
       </c>
       <c r="D11" t="n">
-        <v>91.48999999999999</v>
+        <v>302.97</v>
       </c>
       <c r="E11" t="n">
-        <v>396.75</v>
+        <v>1312.54</v>
       </c>
       <c r="F11" t="n">
-        <v>28.82</v>
+        <v>44.21</v>
       </c>
       <c r="G11" t="n">
-        <v>13.29</v>
+        <v>34.53</v>
       </c>
       <c r="H11" t="n">
-        <v>85.84</v>
+        <v>369.02</v>
       </c>
       <c r="I11" t="n">
-        <v>9.58</v>
+        <v>15.93</v>
       </c>
       <c r="J11" t="n">
-        <v>20.8</v>
+        <v>58.66</v>
       </c>
       <c r="K11" t="n">
-        <v>9.220000000000001</v>
+        <v>2.85</v>
       </c>
       <c r="L11" t="n">
-        <v>9.550000000000001</v>
+        <v>7.47</v>
       </c>
       <c r="M11" t="n">
-        <v>12.77</v>
+        <v>14.1</v>
       </c>
       <c r="N11" t="n">
-        <v>117.41</v>
+        <v>401.91</v>
       </c>
       <c r="O11" t="n">
-        <v>36.14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>51.95</v>
-      </c>
-      <c r="C12" t="n">
-        <v>40.15</v>
-      </c>
-      <c r="D12" t="n">
-        <v>115.9</v>
-      </c>
-      <c r="E12" t="n">
-        <v>458.14</v>
-      </c>
-      <c r="F12" t="n">
-        <v>31.72</v>
-      </c>
-      <c r="G12" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>98.08</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="J12" t="n">
-        <v>21.07</v>
-      </c>
-      <c r="K12" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="L12" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="M12" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="N12" t="n">
-        <v>130.91</v>
-      </c>
-      <c r="O12" t="n">
-        <v>41.15</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>50.98</v>
-      </c>
-      <c r="C13" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="D13" t="n">
-        <v>118.56</v>
-      </c>
-      <c r="E13" t="n">
-        <v>484.64</v>
-      </c>
-      <c r="F13" t="n">
-        <v>34.66</v>
-      </c>
-      <c r="G13" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="H13" t="n">
-        <v>114.697865936733</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14.0625736014385</v>
-      </c>
-      <c r="J13" t="n">
-        <v>25.32</v>
-      </c>
-      <c r="K13" t="n">
-        <v>8.34965307585413</v>
-      </c>
-      <c r="L13" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="M13" t="n">
-        <v>14.0625736014385</v>
-      </c>
-      <c r="N13" t="n">
-        <v>151.172666215464</v>
-      </c>
-      <c r="O13" t="n">
-        <v>35.98</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>52.1092471269395</v>
-      </c>
-      <c r="C14" t="n">
-        <v>40.6775721162803</v>
-      </c>
-      <c r="D14" t="n">
-        <v>111.543678200395</v>
-      </c>
-      <c r="E14" t="n">
-        <v>500.28</v>
-      </c>
-      <c r="F14" t="n">
-        <v>36.127653747374</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16.1016771314872</v>
-      </c>
-      <c r="H14" t="n">
-        <v>131.644413794373</v>
-      </c>
-      <c r="I14" t="n">
-        <v>15.5413544062802</v>
-      </c>
-      <c r="J14" t="n">
-        <v>25.5532969663379</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9.14197318016482</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7.91075788444186</v>
-      </c>
-      <c r="M14" t="n">
-        <v>16.4555517242967</v>
-      </c>
-      <c r="N14" t="n">
-        <v>172.783293105115</v>
-      </c>
-      <c r="O14" t="n">
-        <v>37.4736729677695</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>59.7583042589518</v>
-      </c>
-      <c r="C15" t="n">
-        <v>40.0114128279651</v>
-      </c>
-      <c r="D15" t="n">
-        <v>111.818591439354</v>
-      </c>
-      <c r="E15" t="n">
-        <v>516.64</v>
-      </c>
-      <c r="F15" t="n">
-        <v>35.913151523585</v>
-      </c>
-      <c r="G15" t="n">
-        <v>14.4353907352428</v>
-      </c>
-      <c r="H15" t="n">
-        <v>134.103281211034</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13.6455970355087</v>
-      </c>
-      <c r="J15" t="n">
-        <v>30.921625651036</v>
-      </c>
-      <c r="K15" t="n">
-        <v>10.8223700626448</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7.92435887501754</v>
-      </c>
-      <c r="M15" t="n">
-        <v>15.9982861795619</v>
-      </c>
-      <c r="N15" t="n">
-        <v>174.569534488749</v>
-      </c>
-      <c r="O15" t="n">
-        <v>41.2830201027606</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>45.77</v>
-      </c>
-      <c r="D16" t="n">
-        <v>113.28</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1053.8</v>
-      </c>
-      <c r="F16" t="n">
-        <v>36.74</v>
-      </c>
-      <c r="G16" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="H16" t="n">
-        <v>145.79</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="J16" t="n">
-        <v>32.54</v>
-      </c>
-      <c r="K16" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="L16" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="M16" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="N16" t="n">
-        <v>195.95</v>
-      </c>
-      <c r="O16" t="n">
-        <v>48.28</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>132.9</v>
-      </c>
-      <c r="C17" t="n">
-        <v>118.6</v>
-      </c>
-      <c r="D17" t="n">
-        <v>209</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1136.5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>294.8</v>
-      </c>
-      <c r="I17" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>78</v>
-      </c>
-      <c r="L17" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="M17" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="N17" t="n">
-        <v>448.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>82.59999999999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>116.3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>118</v>
-      </c>
-      <c r="D18" t="n">
-        <v>209.5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F18" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="G18" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="H18" t="n">
-        <v>290.6</v>
-      </c>
-      <c r="I18" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="K18" t="n">
-        <v>71</v>
-      </c>
-      <c r="L18" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="M18" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="N18" t="n">
-        <v>446.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>96.2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>122.08</v>
-      </c>
-      <c r="C19" t="n">
-        <v>123.64</v>
-      </c>
-      <c r="D19" t="n">
-        <v>229.95</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1234.17</v>
-      </c>
-      <c r="F19" t="n">
-        <v>74.16</v>
-      </c>
-      <c r="G19" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>304.87</v>
-      </c>
-      <c r="I19" t="n">
-        <v>29.43</v>
-      </c>
-      <c r="J19" t="n">
-        <v>65.04000000000001</v>
-      </c>
-      <c r="K19" t="n">
-        <v>65.65000000000001</v>
-      </c>
-      <c r="L19" t="n">
-        <v>27.57</v>
-      </c>
-      <c r="M19" t="n">
-        <v>49.52</v>
-      </c>
-      <c r="N19" t="n">
-        <v>449.46</v>
-      </c>
-      <c r="O19" t="n">
-        <v>103.07</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>181.0880458151</v>
-      </c>
-      <c r="C20" t="n">
-        <v>114.5425930953</v>
-      </c>
-      <c r="D20" t="n">
-        <v>327.6134732146</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1271.0301456102</v>
-      </c>
-      <c r="F20" t="n">
-        <v>45.8212972434</v>
-      </c>
-      <c r="G20" t="n">
-        <v>27.7647385219</v>
-      </c>
-      <c r="H20" t="n">
-        <v>333.5344734445</v>
-      </c>
-      <c r="I20" t="n">
-        <v>13.7186610443</v>
-      </c>
-      <c r="J20" t="n">
-        <v>53.7144872952</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.5360954603</v>
-      </c>
-      <c r="L20" t="n">
-        <v>11.6235097398</v>
-      </c>
-      <c r="M20" t="n">
-        <v>13.5219330633</v>
-      </c>
-      <c r="N20" t="n">
-        <v>366.3117382613</v>
-      </c>
-      <c r="O20" t="n">
-        <v>142.5508376723</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>200.49</v>
-      </c>
-      <c r="C21" t="n">
-        <v>101.89</v>
-      </c>
-      <c r="D21" t="n">
-        <v>302.97</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1312.54</v>
-      </c>
-      <c r="F21" t="n">
-        <v>44.21</v>
-      </c>
-      <c r="G21" t="n">
-        <v>34.53</v>
-      </c>
-      <c r="H21" t="n">
-        <v>369.02</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="J21" t="n">
-        <v>58.66</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="L21" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="M21" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>401.91</v>
-      </c>
-      <c r="O21" t="n">
         <v>160.41</v>
       </c>
     </row>
